--- a/output/outputExec_5.xlsx
+++ b/output/outputExec_5.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\MyProjects\ISEC\CR_MatlabNN\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC06D6-2054-4B4B-AAD5-C11E76E85646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5B31D8-5FE3-41E8-81E3-19E2A3D6699B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" xr2:uid="{82FF2787-F833-4C47-86F2-90542906961A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10665" activeTab="2" xr2:uid="{D6D5BAC6-9526-4B51-984E-7EFAC55625BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +32,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="24">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Nome do Treino</t>
+  </si>
+  <si>
+    <t>trainolmBase_Formas2_8</t>
+  </si>
+  <si>
+    <t>Função Treino</t>
+  </si>
+  <si>
+    <t>trainlm</t>
+  </si>
+  <si>
+    <t>Divisao dos Exemplos</t>
+  </si>
+  <si>
+    <t>Camadas</t>
+  </si>
+  <si>
+    <t>Nº Neuronios</t>
+  </si>
+  <si>
+    <t>Função de Activacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcao de Divisao </t>
+  </si>
+  <si>
+    <t>dividerand</t>
+  </si>
+  <si>
+    <t>Layer 1</t>
+  </si>
+  <si>
+    <t>tansig</t>
+  </si>
+  <si>
+    <t>Trainning</t>
+  </si>
+  <si>
+    <t>Layer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation </t>
+  </si>
+  <si>
+    <t>Layer 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>Layer 4</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Precisoa Treino</t>
+  </si>
+  <si>
+    <t>Precisao Global</t>
+  </si>
+  <si>
+    <t>trainolmBase_Formas2_9</t>
+  </si>
+  <si>
+    <t>trainolmBase_Formas2_10</t>
   </si>
 </sst>
 </file>
@@ -68,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,20 +455,864 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D7E77A-C5A4-46E4-8695-994746746375}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD53B84-3FEC-4560-BFB1-77CE0EA4EB22}">
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB62697E-F766-4335-881A-2B13E85C8679}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>99.173553719008268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>99.875621890547265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FAE3-6CEB-4056-84DB-5168754D78B6}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>0</v>
       </c>
     </row>
